--- a/EcommerceWebsite.Admin/SanPhamNhap-Copy.xlsx
+++ b/EcommerceWebsite.Admin/SanPhamNhap-Copy.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="0" windowWidth="18264" windowHeight="7896"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,19 +38,19 @@
     <t>MH02</t>
   </si>
   <si>
-    <t xml:space="preserve">Đồng hồ Nam Adriatica A1296.5214Q </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đồng hồ Nam Adriatica A8302.5114Q </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đồng hồ Nam Citizen AG8344-57B  </t>
+    <t>sp 1</t>
+  </si>
+  <si>
+    <t>sp 2</t>
+  </si>
+  <si>
+    <t>sp 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,16 +365,16 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="62.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -391,11 +391,11 @@
         <v>2500000</v>
       </c>
       <c r="F1">
-        <f t="shared" ref="F1:F11" si="0">D1*E1</f>
+        <f t="shared" ref="F1:F3" si="0">D1*E1</f>
         <v>75000000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -416,7 +416,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
